--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M627"/>
+  <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carlos Arevalo</t>
+          <t>Carlitos Arevalo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -619,10 +619,13 @@
         <v>7280</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20720</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12600</v>
+      </c>
+      <c r="M5">
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -633,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carlos Arevalo</t>
+          <t>Carlitos Arevalo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,7 +650,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -667,10 +670,13 @@
         <v>5200</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="M6">
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -681,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carlos Arevalo</t>
+          <t>Carlitos Arevalo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -695,7 +701,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -715,10 +721,13 @@
         <v>5200</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="M7">
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
@@ -6549,7 +6558,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Carlos Arevalo</t>
+          <t>Carlitos Arevalo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6563,7 +6572,7 @@
         </is>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6583,10 +6592,13 @@
         <v>4081</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>23919</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>15400</v>
+      </c>
+      <c r="M123">
+        <v>0.55</v>
       </c>
     </row>
     <row r="124">
@@ -22865,391 +22877,416 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
+    <row r="471">
+      <c r="A471" t="inlineStr">
         <is>
           <t>30/11/2024</t>
         </is>
       </c>
-      <c r="C618" t="inlineStr">
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Apoyo - 13 dias</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Ines Torres</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Apoyo</t>
+        </is>
+      </c>
+      <c r="L471">
+        <v>816000</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>30/11/2024</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
         <is>
           <t>Fondo - Rifa</t>
         </is>
       </c>
-      <c r="D618" t="inlineStr">
+      <c r="D472" t="inlineStr">
         <is>
           <t>Marinela Olaya</t>
         </is>
       </c>
-      <c r="F618" t="inlineStr">
+      <c r="F472" t="inlineStr">
         <is>
           <t>Fondo</t>
         </is>
       </c>
-      <c r="L618">
+      <c r="L472">
         <v>-90000</v>
       </c>
     </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
+    <row r="473">
+      <c r="A473" t="inlineStr">
         <is>
           <t>30/11/2024</t>
         </is>
       </c>
-      <c r="C619" t="inlineStr">
+      <c r="C473" t="inlineStr">
         <is>
           <t>Fondo - Rifa</t>
         </is>
       </c>
-      <c r="D619" t="inlineStr">
+      <c r="D473" t="inlineStr">
         <is>
           <t>Elvis Molina</t>
         </is>
       </c>
-      <c r="F619" t="inlineStr">
+      <c r="F473" t="inlineStr">
         <is>
           <t>Fondo</t>
         </is>
       </c>
-      <c r="L619">
+      <c r="L473">
         <v>-40000</v>
       </c>
     </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
+    <row r="474">
+      <c r="A474" t="inlineStr">
         <is>
           <t>30/11/2024</t>
         </is>
       </c>
-      <c r="C620" t="inlineStr">
+      <c r="C474" t="inlineStr">
         <is>
           <t>Fondo - Rifa</t>
         </is>
       </c>
-      <c r="D620" t="inlineStr">
+      <c r="D474" t="inlineStr">
         <is>
           <t>Johana Quimbay</t>
         </is>
       </c>
-      <c r="F620" t="inlineStr">
+      <c r="F474" t="inlineStr">
         <is>
           <t>Fondo</t>
         </is>
       </c>
-      <c r="L620">
+      <c r="L474">
         <v>-40000</v>
       </c>
     </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
+    <row r="475">
+      <c r="A475" t="inlineStr">
         <is>
           <t>30/11/2024</t>
         </is>
       </c>
-      <c r="C621" t="inlineStr">
+      <c r="C475" t="inlineStr">
         <is>
           <t>Fondo - Rifa</t>
         </is>
       </c>
-      <c r="D621" t="inlineStr">
+      <c r="D475" t="inlineStr">
         <is>
           <t>Ivonne Mancipe</t>
         </is>
       </c>
-      <c r="F621" t="inlineStr">
+      <c r="F475" t="inlineStr">
         <is>
           <t>Fondo</t>
         </is>
       </c>
-      <c r="L621">
+      <c r="L475">
         <v>-90000</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
+    <row r="476">
+      <c r="A476" t="inlineStr">
         <is>
           <t>30/11/2024 11:18</t>
         </is>
       </c>
-      <c r="B622" t="inlineStr">
+      <c r="B476" t="inlineStr">
         <is>
           <t>Pago Anticipado</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr">
+      <c r="C476" t="inlineStr">
         <is>
           <t>Corte Cabello Dama</t>
         </is>
       </c>
-      <c r="D622" t="inlineStr">
+      <c r="D476" t="inlineStr">
         <is>
           <t>Beto Garcia</t>
         </is>
       </c>
-      <c r="E622">
+      <c r="E476">
         <v>38500</v>
       </c>
-      <c r="F622" t="inlineStr">
+      <c r="F476" t="inlineStr">
         <is>
           <t>Tocador</t>
         </is>
       </c>
-      <c r="G622">
-        <v>0.036</v>
-      </c>
-      <c r="H622">
+      <c r="G476">
+        <v>0.036</v>
+      </c>
+      <c r="H476">
         <v>1386</v>
       </c>
-      <c r="I622">
+      <c r="I476">
         <v>0.106</v>
       </c>
-      <c r="J622">
+      <c r="J476">
         <v>4081</v>
       </c>
-      <c r="K622">
+      <c r="K476">
         <v>33033</v>
       </c>
-      <c r="L622">
+      <c r="L476">
         <v>-200000</v>
       </c>
     </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
+    <row r="477">
+      <c r="A477" t="inlineStr">
         <is>
           <t>29/11/2024 16:56</t>
         </is>
       </c>
-      <c r="B623" t="inlineStr">
+      <c r="B477" t="inlineStr">
         <is>
           <t>Pago Anticipado</t>
         </is>
       </c>
-      <c r="C623" t="inlineStr">
+      <c r="C477" t="inlineStr">
         <is>
           <t>Combo 1 depilación completa</t>
         </is>
       </c>
-      <c r="D623" t="inlineStr">
+      <c r="D477" t="inlineStr">
         <is>
           <t>Nydia Gamba</t>
         </is>
       </c>
-      <c r="E623">
+      <c r="E477">
         <v>105000</v>
       </c>
-      <c r="F623" t="inlineStr">
+      <c r="F477" t="inlineStr">
         <is>
           <t>Alianza</t>
         </is>
       </c>
-      <c r="G623">
-        <v>0</v>
-      </c>
-      <c r="H623">
-        <v>0</v>
-      </c>
-      <c r="I623">
-        <v>0</v>
-      </c>
-      <c r="J623">
-        <v>0</v>
-      </c>
-      <c r="K623">
+      <c r="G477">
+        <v>0</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
         <v>105000</v>
       </c>
-      <c r="L623">
+      <c r="L477">
         <v>-105000</v>
       </c>
     </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
+    <row r="478">
+      <c r="A478" t="inlineStr">
         <is>
           <t>18/11/2024 10:00</t>
         </is>
       </c>
-      <c r="B624" t="inlineStr">
+      <c r="B478" t="inlineStr">
         <is>
           <t>Pago Anticipado</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr">
+      <c r="C478" t="inlineStr">
         <is>
           <t>Depilación Pierna completa Sugaring</t>
         </is>
       </c>
-      <c r="D624" t="inlineStr">
+      <c r="D478" t="inlineStr">
         <is>
           <t>Nydia Gamba</t>
         </is>
       </c>
-      <c r="E624">
+      <c r="E478">
         <v>70000</v>
       </c>
-      <c r="F624" t="inlineStr">
+      <c r="F478" t="inlineStr">
         <is>
           <t>Alianza</t>
         </is>
       </c>
-      <c r="G624">
-        <v>0</v>
-      </c>
-      <c r="H624">
-        <v>0</v>
-      </c>
-      <c r="I624">
-        <v>0</v>
-      </c>
-      <c r="J624">
-        <v>0</v>
-      </c>
-      <c r="K624">
+      <c r="G478">
+        <v>0</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
         <v>70000</v>
       </c>
-      <c r="L624">
+      <c r="L478">
         <v>-70000</v>
       </c>
     </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
+    <row r="479">
+      <c r="A479" t="inlineStr">
         <is>
           <t>16/11/2024 16:07</t>
         </is>
       </c>
-      <c r="B625" t="inlineStr">
+      <c r="B479" t="inlineStr">
         <is>
           <t>Pago Anticipado</t>
         </is>
       </c>
-      <c r="C625" t="inlineStr">
+      <c r="C479" t="inlineStr">
         <is>
           <t>Combo 3 Depilación</t>
         </is>
       </c>
-      <c r="D625" t="inlineStr">
+      <c r="D479" t="inlineStr">
         <is>
           <t>Nydia Gamba</t>
         </is>
       </c>
-      <c r="E625">
+      <c r="E479">
         <v>100000</v>
       </c>
-      <c r="F625" t="inlineStr">
+      <c r="F479" t="inlineStr">
         <is>
           <t>Alianza</t>
         </is>
       </c>
-      <c r="G625">
-        <v>0</v>
-      </c>
-      <c r="H625">
-        <v>0</v>
-      </c>
-      <c r="I625">
-        <v>0</v>
-      </c>
-      <c r="J625">
-        <v>0</v>
-      </c>
-      <c r="K625">
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
         <v>100000</v>
       </c>
-      <c r="L625">
+      <c r="L479">
         <v>-100000</v>
       </c>
     </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
+    <row r="480">
+      <c r="A480" t="inlineStr">
         <is>
           <t>16/11/2024 10:57</t>
         </is>
       </c>
-      <c r="B626" t="inlineStr">
+      <c r="B480" t="inlineStr">
         <is>
           <t>Pago Anticipado</t>
         </is>
       </c>
-      <c r="C626" t="inlineStr">
+      <c r="C480" t="inlineStr">
         <is>
           <t>Pestañas set express seda</t>
         </is>
       </c>
-      <c r="D626" t="inlineStr">
+      <c r="D480" t="inlineStr">
         <is>
           <t>Nydia Gamba</t>
         </is>
       </c>
-      <c r="E626">
+      <c r="E480">
         <v>100000</v>
       </c>
-      <c r="F626" t="inlineStr">
+      <c r="F480" t="inlineStr">
         <is>
           <t>Alianza</t>
         </is>
       </c>
-      <c r="G626">
-        <v>0</v>
-      </c>
-      <c r="H626">
-        <v>0</v>
-      </c>
-      <c r="I626">
-        <v>0</v>
-      </c>
-      <c r="J626">
-        <v>0</v>
-      </c>
-      <c r="K626">
+      <c r="G480">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
         <v>100000</v>
       </c>
-      <c r="L626">
+      <c r="L480">
         <v>-100000</v>
       </c>
     </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
+    <row r="481">
+      <c r="A481" t="inlineStr">
         <is>
           <t>16/11/2024 10:51</t>
         </is>
       </c>
-      <c r="B627" t="inlineStr">
+      <c r="B481" t="inlineStr">
         <is>
           <t>Pago Anticipado</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr">
+      <c r="C481" t="inlineStr">
         <is>
           <t>Combo 3 Depilación</t>
         </is>
       </c>
-      <c r="D627" t="inlineStr">
+      <c r="D481" t="inlineStr">
         <is>
           <t>Nydia Gamba</t>
         </is>
       </c>
-      <c r="E627">
+      <c r="E481">
         <v>100000</v>
       </c>
-      <c r="F627" t="inlineStr">
+      <c r="F481" t="inlineStr">
         <is>
           <t>Alianza</t>
         </is>
       </c>
-      <c r="G627">
-        <v>0</v>
-      </c>
-      <c r="H627">
-        <v>0</v>
-      </c>
-      <c r="I627">
-        <v>0</v>
-      </c>
-      <c r="J627">
-        <v>0</v>
-      </c>
-      <c r="K627">
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
         <v>100000</v>
       </c>
-      <c r="L627">
+      <c r="L481">
         <v>-100000</v>
       </c>
     </row>

--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
@@ -3211,10 +3211,10 @@
         <v>90000</v>
       </c>
       <c r="L56">
-        <v>72000</v>
+        <v>81000</v>
       </c>
       <c r="M56">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57">

--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M481"/>
+  <dimension ref="A1:M480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21655,32 +21655,32 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>16/11/2024</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Fondo - Rifa</t>
+          <t>Descuento - Anticipo</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Fondo</t>
+          <t>Descuento</t>
         </is>
       </c>
       <c r="L422">
-        <v>-80000</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>16/11/2024</t>
+          <t>22/11/2024</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -21705,7 +21705,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>22/11/2024</t>
+          <t>24/11/2024</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -21724,13 +21724,13 @@
         </is>
       </c>
       <c r="L424">
-        <v>-20000</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>24/11/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -21749,13 +21749,13 @@
         </is>
       </c>
       <c r="L425">
-        <v>-30000</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>27/11/2024</t>
+          <t>29/11/2024</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -21774,13 +21774,13 @@
         </is>
       </c>
       <c r="L426">
-        <v>-20000</v>
+        <v>-21000</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>29/11/2024</t>
+          <t>27/11/2024</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -21799,13 +21799,13 @@
         </is>
       </c>
       <c r="L427">
-        <v>-21000</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>27/11/2024</t>
+          <t>26/11/2024</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -21815,7 +21815,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -21824,7 +21824,7 @@
         </is>
       </c>
       <c r="L428">
-        <v>-30000</v>
+        <v>-60000</v>
       </c>
     </row>
     <row r="429">
@@ -21855,7 +21855,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>26/11/2024</t>
+          <t>25/11/2024</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Paola Pinzon</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -21874,13 +21874,13 @@
         </is>
       </c>
       <c r="L430">
-        <v>-60000</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>25/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21899,18 +21899,18 @@
         </is>
       </c>
       <c r="L431">
-        <v>-100000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo</t>
+          <t>Fondo - Ahorro</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L432">
@@ -21940,7 +21940,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Ines Torres</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -21949,7 +21949,7 @@
         </is>
       </c>
       <c r="L433">
-        <v>-50000</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="434">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Ines Torres</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -21974,7 +21974,7 @@
         </is>
       </c>
       <c r="L434">
-        <v>-100000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="435">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Nataly Caro</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Nataly Caro</t>
+          <t>Nydia Gamba</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -22074,7 +22074,7 @@
         </is>
       </c>
       <c r="L438">
-        <v>-50000</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="439">
@@ -22090,7 +22090,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Nydia Gamba</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -22099,7 +22099,7 @@
         </is>
       </c>
       <c r="L439">
-        <v>-100000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="440">
@@ -22115,7 +22115,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -22135,21 +22135,21 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Fondo - Ahorro</t>
+          <t>Descuento - Anticipo - 4 Boletas rifa</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Paola Pinzon</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Fondo</t>
+          <t>Descuento</t>
         </is>
       </c>
       <c r="L441">
-        <v>-50000</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="442">
@@ -22165,7 +22165,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -22185,12 +22185,12 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - 4 Boletas rifa</t>
+          <t>Descuento - Anticipo - 8 Boletas rifa</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -22199,7 +22199,7 @@
         </is>
       </c>
       <c r="L443">
-        <v>-40000</v>
+        <v>-80000</v>
       </c>
     </row>
     <row r="444">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - 8 Boletas rifa</t>
+          <t>Fondo - Préstamo - 3 cuota</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -22220,11 +22220,11 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L444">
-        <v>-80000</v>
+        <v>-125000</v>
       </c>
     </row>
     <row r="445">
@@ -22235,7 +22235,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Fondo - Préstamo - 3 cuota</t>
+          <t>Fondo - Intereses - 3 cuota</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -22249,7 +22249,7 @@
         </is>
       </c>
       <c r="L445">
-        <v>-125000</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="446">
@@ -22260,12 +22260,12 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - 3 cuota</t>
+          <t>Fondo - Préstamo - 2 cuota</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -22274,7 +22274,7 @@
         </is>
       </c>
       <c r="L446">
-        <v>-25000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="447">
@@ -22285,7 +22285,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Fondo - Préstamo - 2 cuota</t>
+          <t>Fondo - Intereses - 2 cuota</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -22299,7 +22299,7 @@
         </is>
       </c>
       <c r="L447">
-        <v>-50000</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="448">
@@ -22310,21 +22310,21 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - 2 cuota</t>
+          <t>Descuento - Producto - 20 de Noviembre</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Paola Pinzon</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Fondo</t>
+          <t>Descuento</t>
         </is>
       </c>
       <c r="L448">
-        <v>-7500</v>
+        <v>-16512</v>
       </c>
     </row>
     <row r="449">
@@ -22340,7 +22340,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -22349,7 +22349,7 @@
         </is>
       </c>
       <c r="L449">
-        <v>-16512</v>
+        <v>-77689</v>
       </c>
     </row>
     <row r="450">
@@ -22360,12 +22360,12 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 20 de Noviembre</t>
+          <t>Descuento - Producto - 21 de Noviembre</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -22374,7 +22374,7 @@
         </is>
       </c>
       <c r="L450">
-        <v>-77689</v>
+        <v>-46534</v>
       </c>
     </row>
     <row r="451">
@@ -22385,12 +22385,12 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 21 de Noviembre</t>
+          <t>Descuento - Producto - 22 de Noviembre</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -22399,7 +22399,7 @@
         </is>
       </c>
       <c r="L451">
-        <v>-46534</v>
+        <v>-10570</v>
       </c>
     </row>
     <row r="452">
@@ -22410,12 +22410,12 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 22 de Noviembre</t>
+          <t>Descuento - Producto - 27 de Noviembre</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -22424,7 +22424,7 @@
         </is>
       </c>
       <c r="L452">
-        <v>-10570</v>
+        <v>-29453</v>
       </c>
     </row>
     <row r="453">
@@ -22435,21 +22435,21 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 27 de Noviembre</t>
+          <t>Fondo - Préstamo - 5 cuota</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L453">
-        <v>-29453</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="454">
@@ -22460,7 +22460,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Fondo - Préstamo - 5 cuota</t>
+          <t>Fondo - Intereses - 5 cuota</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -22474,23 +22474,23 @@
         </is>
       </c>
       <c r="L454">
-        <v>-100000</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>16/11/2024</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - 5 cuota</t>
+          <t>Fondo - Almuerzo - 2 Lasagna</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Beto Garcia</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -22499,7 +22499,7 @@
         </is>
       </c>
       <c r="L455">
-        <v>-40000</v>
+        <v>-34000</v>
       </c>
     </row>
     <row r="456">
@@ -22515,7 +22515,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Beto Garcia</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -22535,12 +22535,12 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - 2 Lasagna</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -22549,7 +22549,7 @@
         </is>
       </c>
       <c r="L457">
-        <v>-34000</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="458">
@@ -22565,7 +22565,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Nydia Gamba</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -22610,12 +22610,12 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo</t>
+          <t>Fondo - Almuerzo - Desayuno</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Nydia Gamba</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -22624,7 +22624,7 @@
         </is>
       </c>
       <c r="L460">
-        <v>-17000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="461">
@@ -22635,12 +22635,12 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - Desayuno</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -22649,13 +22649,13 @@
         </is>
       </c>
       <c r="L461">
-        <v>-15000</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>16/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22665,7 +22665,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Paola Pinzon</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -22674,7 +22674,7 @@
         </is>
       </c>
       <c r="L462">
-        <v>-17000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="463">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="L463">
-        <v>-15000</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="464">
@@ -22715,7 +22715,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Beto Garcia</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -22740,7 +22740,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Beto Garcia</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -22749,7 +22749,7 @@
         </is>
       </c>
       <c r="L465">
-        <v>-17000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="466">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -22774,13 +22774,13 @@
         </is>
       </c>
       <c r="L466">
-        <v>-15000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22790,7 +22790,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="L467">
-        <v>-2000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="468">
@@ -22815,7 +22815,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -22860,21 +22860,21 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo</t>
+          <t>Apoyo - 13 dias</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
+          <t>Ines Torres</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Fondo</t>
+          <t>Apoyo</t>
         </is>
       </c>
       <c r="L470">
-        <v>-15000</v>
+        <v>816000</v>
       </c>
     </row>
     <row r="471">
@@ -22885,21 +22885,21 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Apoyo - 13 dias</t>
+          <t>Fondo - Rifa</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Ines Torres</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Apoyo</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L471">
-        <v>816000</v>
+        <v>-90000</v>
       </c>
     </row>
     <row r="472">
@@ -22915,7 +22915,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="L472">
-        <v>-90000</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="473">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -22965,7 +22965,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -22974,38 +22974,61 @@
         </is>
       </c>
       <c r="L474">
-        <v>-40000</v>
+        <v>-90000</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>30/11/2024 11:18</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Pago Anticipado</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Fondo - Rifa</t>
+          <t>Corte Cabello Dama</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
-        </is>
+          <t>Beto Garcia</t>
+        </is>
+      </c>
+      <c r="E475">
+        <v>38500</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Fondo</t>
-        </is>
+          <t>Tocador</t>
+        </is>
+      </c>
+      <c r="G475">
+        <v>0.036</v>
+      </c>
+      <c r="H475">
+        <v>1386</v>
+      </c>
+      <c r="I475">
+        <v>0.106</v>
+      </c>
+      <c r="J475">
+        <v>4081</v>
+      </c>
+      <c r="K475">
+        <v>33033</v>
       </c>
       <c r="L475">
-        <v>-90000</v>
+        <v>-200000</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>30/11/2024 11:18</t>
+          <t>29/11/2024 16:56</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -23015,45 +23038,45 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Corte Cabello Dama</t>
+          <t>Combo 1 depilación completa</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Beto Garcia</t>
+          <t>Nydia Gamba</t>
         </is>
       </c>
       <c r="E476">
-        <v>38500</v>
+        <v>105000</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Tocador</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G476">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="H476">
-        <v>1386</v>
+        <v>0</v>
       </c>
       <c r="I476">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="J476">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="K476">
-        <v>33033</v>
+        <v>105000</v>
       </c>
       <c r="L476">
-        <v>-200000</v>
+        <v>-105000</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>29/11/2024 16:56</t>
+          <t>18/11/2024 10:00</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -23063,7 +23086,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Combo 1 depilación completa</t>
+          <t>Depilación Pierna completa Sugaring</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -23072,7 +23095,7 @@
         </is>
       </c>
       <c r="E477">
-        <v>105000</v>
+        <v>70000</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -23092,16 +23115,16 @@
         <v>0</v>
       </c>
       <c r="K477">
-        <v>105000</v>
+        <v>70000</v>
       </c>
       <c r="L477">
-        <v>-105000</v>
+        <v>-70000</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>18/11/2024 10:00</t>
+          <t>16/11/2024 16:07</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -23111,7 +23134,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Depilación Pierna completa Sugaring</t>
+          <t>Combo 3 Depilación</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -23120,7 +23143,7 @@
         </is>
       </c>
       <c r="E478">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -23140,16 +23163,16 @@
         <v>0</v>
       </c>
       <c r="K478">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="L478">
-        <v>-70000</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>16/11/2024 16:07</t>
+          <t>16/11/2024 10:57</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -23159,7 +23182,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Combo 3 Depilación</t>
+          <t>Pestañas set express seda</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -23197,7 +23220,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>16/11/2024 10:57</t>
+          <t>16/11/2024 10:51</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -23207,7 +23230,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Pestañas set express seda</t>
+          <t>Combo 3 Depilación</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -23239,54 +23262,6 @@
         <v>100000</v>
       </c>
       <c r="L480">
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>16/11/2024 10:51</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>Pago Anticipado</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>Combo 3 Depilación</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>Nydia Gamba</t>
-        </is>
-      </c>
-      <c r="E481">
-        <v>100000</v>
-      </c>
-      <c r="F481" t="inlineStr">
-        <is>
-          <t>Alianza</t>
-        </is>
-      </c>
-      <c r="G481">
-        <v>0</v>
-      </c>
-      <c r="H481">
-        <v>0</v>
-      </c>
-      <c r="I481">
-        <v>0</v>
-      </c>
-      <c r="J481">
-        <v>0</v>
-      </c>
-      <c r="K481">
-        <v>100000</v>
-      </c>
-      <c r="L481">
         <v>-100000</v>
       </c>
     </row>

--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/0. Consolidado.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M480"/>
+  <dimension ref="A1:M478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4991,20 +4991,20 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Blower cabello extra largo</t>
+          <t>Spa Manicure Tradicional</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Nataly Caro</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="E92">
-        <v>55000</v>
+        <v>28000</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tocador</t>
+          <t>Spa</t>
         </is>
       </c>
       <c r="G92">
@@ -5014,19 +5014,19 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0.0742</v>
+        <v>0.26</v>
       </c>
       <c r="J92">
-        <v>4081</v>
+        <v>7280</v>
       </c>
       <c r="K92">
-        <v>50919</v>
+        <v>20720</v>
       </c>
       <c r="L92">
-        <v>30250</v>
+        <v>12600</v>
       </c>
       <c r="M92">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="93">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Spa Pedicure Gel Evolution</t>
+          <t>Express capilar cabello extra largo</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="E93">
-        <v>38000</v>
+        <v>60000</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Spa</t>
+          <t>Bac</t>
         </is>
       </c>
       <c r="G93">
@@ -5065,19 +5065,19 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="J93">
-        <v>9880</v>
+        <v>15000</v>
       </c>
       <c r="K93">
-        <v>28120</v>
+        <v>45000</v>
       </c>
       <c r="L93">
-        <v>17100</v>
+        <v>24000</v>
       </c>
       <c r="M93">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="94">
@@ -5144,20 +5144,20 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Express capilar cabello extra largo</t>
+          <t>Spa Pedicure Gel Evolution</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="E95">
-        <v>60000</v>
+        <v>38000</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bac</t>
+          <t>Spa</t>
         </is>
       </c>
       <c r="G95">
@@ -5167,19 +5167,19 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="J95">
-        <v>15000</v>
+        <v>9880</v>
       </c>
       <c r="K95">
-        <v>45000</v>
+        <v>28120</v>
       </c>
       <c r="L95">
-        <v>24000</v>
+        <v>17100</v>
       </c>
       <c r="M95">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="96">
@@ -5195,20 +5195,20 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Combo 3 Depilación  (completa)</t>
+          <t>Blower cabello extra largo</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Nataly Caro</t>
         </is>
       </c>
       <c r="E96">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Depilacion</t>
+          <t>Tocador</t>
         </is>
       </c>
       <c r="G96">
@@ -5218,19 +5218,19 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0.15</v>
+        <v>0.0742</v>
       </c>
       <c r="J96">
-        <v>15000</v>
+        <v>4081</v>
       </c>
       <c r="K96">
-        <v>85000</v>
+        <v>50919</v>
       </c>
       <c r="L96">
-        <v>51000</v>
+        <v>30250</v>
       </c>
       <c r="M96">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="97">
@@ -5246,20 +5246,20 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Depilacion Cejas Cera</t>
+          <t>Spa Manicure Gel Evolution</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="E97">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Depilacion</t>
+          <t>Spa</t>
         </is>
       </c>
       <c r="G97">
@@ -5269,19 +5269,19 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="J97">
-        <v>2700</v>
+        <v>8320</v>
       </c>
       <c r="K97">
-        <v>15300</v>
+        <v>23680</v>
       </c>
       <c r="L97">
-        <v>9180</v>
+        <v>14400</v>
       </c>
       <c r="M97">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="98">
@@ -5297,20 +5297,20 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Spa Manicure Tradicional</t>
+          <t>Depilacion Cejas Cera</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="E98">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Spa</t>
+          <t>Depilacion</t>
         </is>
       </c>
       <c r="G98">
@@ -5320,19 +5320,19 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="J98">
-        <v>7280</v>
+        <v>2700</v>
       </c>
       <c r="K98">
-        <v>20720</v>
+        <v>15300</v>
       </c>
       <c r="L98">
-        <v>12600</v>
+        <v>9180</v>
       </c>
       <c r="M98">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="99">
@@ -5348,20 +5348,20 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Spa Manicure Gel Evolution</t>
+          <t>Combo 3 Depilación  (completa)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="E99">
-        <v>32000</v>
+        <v>100000</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Spa</t>
+          <t>Depilacion</t>
         </is>
       </c>
       <c r="G99">
@@ -5371,19 +5371,19 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="J99">
-        <v>8320</v>
+        <v>15000</v>
       </c>
       <c r="K99">
-        <v>23680</v>
+        <v>85000</v>
       </c>
       <c r="L99">
-        <v>14400</v>
+        <v>51000</v>
       </c>
       <c r="M99">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="100">
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -12484,10 +12484,13 @@
         <v>4081</v>
       </c>
       <c r="K239">
-        <v>0</v>
+        <v>30919</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <v>19250</v>
+      </c>
+      <c r="M239">
+        <v>0.55</v>
       </c>
     </row>
     <row r="240">
@@ -12512,7 +12515,7 @@
         </is>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>95000</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -12532,10 +12535,13 @@
         <v>23750</v>
       </c>
       <c r="K240">
-        <v>0</v>
+        <v>71250</v>
       </c>
       <c r="L240">
-        <v>0</v>
+        <v>38000</v>
+      </c>
+      <c r="M240">
+        <v>0.4</v>
       </c>
     </row>
     <row r="241">
@@ -22135,21 +22141,21 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - 4 Boletas rifa</t>
+          <t>Fondo - Rifa - 8 Boletas rifa</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L441">
-        <v>-40000</v>
+        <v>-80000</v>
       </c>
     </row>
     <row r="442">
@@ -22160,21 +22166,21 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - 4 Boletas rifa</t>
+          <t>Fondo - Préstamo - 3 cuota</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L442">
-        <v>-40000</v>
+        <v>-125000</v>
       </c>
     </row>
     <row r="443">
@@ -22185,7 +22191,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Descuento - Anticipo - 8 Boletas rifa</t>
+          <t>Fondo - Intereses - 3 cuota</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -22195,11 +22201,11 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L443">
-        <v>-80000</v>
+        <v>-25000</v>
       </c>
     </row>
     <row r="444">
@@ -22210,12 +22216,12 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Fondo - Préstamo - 3 cuota</t>
+          <t>Fondo - Préstamo - 2 cuota</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -22224,7 +22230,7 @@
         </is>
       </c>
       <c r="L444">
-        <v>-125000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="445">
@@ -22235,12 +22241,12 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - 3 cuota</t>
+          <t>Fondo - Intereses - 2 cuota</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -22249,7 +22255,7 @@
         </is>
       </c>
       <c r="L445">
-        <v>-25000</v>
+        <v>-7500</v>
       </c>
     </row>
     <row r="446">
@@ -22260,21 +22266,21 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Fondo - Préstamo - 2 cuota</t>
+          <t>Descuento - Producto - 20 de Noviembre</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Paola Pinzon</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Fondo</t>
+          <t>Descuento</t>
         </is>
       </c>
       <c r="L446">
-        <v>-50000</v>
+        <v>-16512</v>
       </c>
     </row>
     <row r="447">
@@ -22285,21 +22291,21 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - 2 cuota</t>
+          <t>Descuento - Producto - 20 de Noviembre</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Paola Pinzon</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Fondo</t>
+          <t>Descuento</t>
         </is>
       </c>
       <c r="L447">
-        <v>-7500</v>
+        <v>-77689</v>
       </c>
     </row>
     <row r="448">
@@ -22310,7 +22316,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 20 de Noviembre</t>
+          <t>Descuento - Producto - 21 de Noviembre</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -22324,7 +22330,7 @@
         </is>
       </c>
       <c r="L448">
-        <v>-16512</v>
+        <v>-46534</v>
       </c>
     </row>
     <row r="449">
@@ -22335,7 +22341,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 20 de Noviembre</t>
+          <t>Descuento - Producto - 22 de Noviembre</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -22349,7 +22355,7 @@
         </is>
       </c>
       <c r="L449">
-        <v>-77689</v>
+        <v>-10570</v>
       </c>
     </row>
     <row r="450">
@@ -22360,7 +22366,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 21 de Noviembre</t>
+          <t>Descuento - Producto - 27 de Noviembre</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -22374,7 +22380,7 @@
         </is>
       </c>
       <c r="L450">
-        <v>-46534</v>
+        <v>-29453</v>
       </c>
     </row>
     <row r="451">
@@ -22385,21 +22391,21 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 22 de Noviembre</t>
+          <t>Fondo - Préstamo - 5 cuota</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L451">
-        <v>-10570</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="452">
@@ -22410,37 +22416,37 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Descuento - Producto - 27 de Noviembre</t>
+          <t>Fondo - Intereses - 5 cuota</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Descuento</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L452">
-        <v>-29453</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>16/11/2024</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Fondo - Préstamo - 5 cuota</t>
+          <t>Fondo - Almuerzo - 2 Lasagna</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Beto Garcia</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -22449,23 +22455,23 @@
         </is>
       </c>
       <c r="L453">
-        <v>-100000</v>
+        <v>-34000</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>16/11/2024</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Fondo - Intereses - 5 cuota</t>
+          <t>Fondo - Almuerzo - 2 Lasagna</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -22474,7 +22480,7 @@
         </is>
       </c>
       <c r="L454">
-        <v>-40000</v>
+        <v>-34000</v>
       </c>
     </row>
     <row r="455">
@@ -22485,12 +22491,12 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - 2 Lasagna</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Beto Garcia</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -22499,7 +22505,7 @@
         </is>
       </c>
       <c r="L455">
-        <v>-34000</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="456">
@@ -22510,12 +22516,12 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - 2 Lasagna</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -22524,7 +22530,7 @@
         </is>
       </c>
       <c r="L456">
-        <v>-34000</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="457">
@@ -22540,7 +22546,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
+          <t>Nydia Gamba</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -22560,12 +22566,12 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo</t>
+          <t>Fondo - Almuerzo - Desayuno</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Olga Arango</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -22574,7 +22580,7 @@
         </is>
       </c>
       <c r="L458">
-        <v>-17000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="459">
@@ -22590,7 +22596,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Nydia Gamba</t>
+          <t>Paola Pinzon</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -22605,12 +22611,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>16/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo - Desayuno</t>
+          <t>Fondo - Almuerzo</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -22630,7 +22636,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>16/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22640,7 +22646,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Paola Pinzon</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -22665,7 +22671,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Olga Arango</t>
+          <t>Beto Garcia</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -22674,7 +22680,7 @@
         </is>
       </c>
       <c r="L462">
-        <v>-15000</v>
+        <v>-17000</v>
       </c>
     </row>
     <row r="463">
@@ -22690,7 +22696,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -22699,7 +22705,7 @@
         </is>
       </c>
       <c r="L463">
-        <v>-17000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="464">
@@ -22715,7 +22721,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Beto Garcia</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -22724,13 +22730,13 @@
         </is>
       </c>
       <c r="L464">
-        <v>-17000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22755,7 +22761,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>30/11/2024</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22774,7 +22780,7 @@
         </is>
       </c>
       <c r="L466">
-        <v>-2000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="467">
@@ -22790,7 +22796,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -22810,21 +22816,21 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo</t>
+          <t>Apoyo - 13 dias</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Ines Torres</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Fondo</t>
+          <t>Apoyo</t>
         </is>
       </c>
       <c r="L468">
-        <v>-15000</v>
+        <v>816000</v>
       </c>
     </row>
     <row r="469">
@@ -22835,12 +22841,12 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Fondo - Almuerzo</t>
+          <t>Fondo - Rifa</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
+          <t>Marinela Olaya</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -22849,7 +22855,7 @@
         </is>
       </c>
       <c r="L469">
-        <v>-15000</v>
+        <v>-90000</v>
       </c>
     </row>
     <row r="470">
@@ -22860,21 +22866,21 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Apoyo - 13 dias</t>
+          <t>Fondo - Rifa - 4 Boletas rifa</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Ines Torres</t>
+          <t>Elvis Molina</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Apoyo</t>
+          <t>Fondo</t>
         </is>
       </c>
       <c r="L470">
-        <v>816000</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="471">
@@ -22885,12 +22891,12 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Fondo - Rifa</t>
+          <t>Fondo - Rifa - 4 Boletas rifa</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Marinela Olaya</t>
+          <t>Johana Quimbay</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -22899,7 +22905,7 @@
         </is>
       </c>
       <c r="L471">
-        <v>-90000</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="472">
@@ -22915,7 +22921,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Elvis Molina</t>
+          <t>Ivonne Mancipe</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -22924,63 +22930,109 @@
         </is>
       </c>
       <c r="L472">
-        <v>-40000</v>
+        <v>-90000</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>30/11/2024 11:18</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Pago Anticipado</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Fondo - Rifa</t>
+          <t>Corte Cabello Dama</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Johana Quimbay</t>
-        </is>
+          <t>Beto Garcia</t>
+        </is>
+      </c>
+      <c r="E473">
+        <v>38500</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Fondo</t>
-        </is>
+          <t>Tocador</t>
+        </is>
+      </c>
+      <c r="G473">
+        <v>0.036</v>
+      </c>
+      <c r="H473">
+        <v>1386</v>
+      </c>
+      <c r="I473">
+        <v>0.106</v>
+      </c>
+      <c r="J473">
+        <v>4081</v>
+      </c>
+      <c r="K473">
+        <v>33033</v>
       </c>
       <c r="L473">
-        <v>-40000</v>
+        <v>-200000</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>29/11/2024 16:56</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Pago Anticipado</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Fondo - Rifa</t>
+          <t>Combo 1 depilación completa</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Ivonne Mancipe</t>
-        </is>
+          <t>Nydia Gamba</t>
+        </is>
+      </c>
+      <c r="E474">
+        <v>105000</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Fondo</t>
-        </is>
+          <t>Alianza</t>
+        </is>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>105000</v>
       </c>
       <c r="L474">
-        <v>-90000</v>
+        <v>-105000</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>30/11/2024 11:18</t>
+          <t>18/11/2024 10:00</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -22990,45 +23042,45 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Corte Cabello Dama</t>
+          <t>Depilación Pierna completa Sugaring</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Beto Garcia</t>
+          <t>Nydia Gamba</t>
         </is>
       </c>
       <c r="E475">
-        <v>38500</v>
+        <v>70000</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Tocador</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G475">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="H475">
-        <v>1386</v>
+        <v>0</v>
       </c>
       <c r="I475">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="J475">
-        <v>4081</v>
+        <v>0</v>
       </c>
       <c r="K475">
-        <v>33033</v>
+        <v>70000</v>
       </c>
       <c r="L475">
-        <v>-200000</v>
+        <v>-70000</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>29/11/2024 16:56</t>
+          <t>16/11/2024 16:07</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -23038,7 +23090,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Combo 1 depilación completa</t>
+          <t>Combo 3 Depilación</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -23047,7 +23099,7 @@
         </is>
       </c>
       <c r="E476">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
@@ -23067,16 +23119,16 @@
         <v>0</v>
       </c>
       <c r="K476">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="L476">
-        <v>-105000</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>18/11/2024 10:00</t>
+          <t>16/11/2024 10:57</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -23086,7 +23138,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Depilación Pierna completa Sugaring</t>
+          <t>Pestañas set express seda</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -23095,7 +23147,7 @@
         </is>
       </c>
       <c r="E477">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -23115,16 +23167,16 @@
         <v>0</v>
       </c>
       <c r="K477">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="L477">
-        <v>-70000</v>
+        <v>-100000</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>16/11/2024 16:07</t>
+          <t>16/11/2024 10:51</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -23166,102 +23218,6 @@
         <v>100000</v>
       </c>
       <c r="L478">
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>16/11/2024 10:57</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>Pago Anticipado</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>Pestañas set express seda</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>Nydia Gamba</t>
-        </is>
-      </c>
-      <c r="E479">
-        <v>100000</v>
-      </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>Alianza</t>
-        </is>
-      </c>
-      <c r="G479">
-        <v>0</v>
-      </c>
-      <c r="H479">
-        <v>0</v>
-      </c>
-      <c r="I479">
-        <v>0</v>
-      </c>
-      <c r="J479">
-        <v>0</v>
-      </c>
-      <c r="K479">
-        <v>100000</v>
-      </c>
-      <c r="L479">
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>16/11/2024 10:51</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>Pago Anticipado</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>Combo 3 Depilación</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>Nydia Gamba</t>
-        </is>
-      </c>
-      <c r="E480">
-        <v>100000</v>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>Alianza</t>
-        </is>
-      </c>
-      <c r="G480">
-        <v>0</v>
-      </c>
-      <c r="H480">
-        <v>0</v>
-      </c>
-      <c r="I480">
-        <v>0</v>
-      </c>
-      <c r="J480">
-        <v>0</v>
-      </c>
-      <c r="K480">
-        <v>100000</v>
-      </c>
-      <c r="L480">
         <v>-100000</v>
       </c>
     </row>
